--- a/dougumi/excel/movie.xlsx
+++ b/dougumi/excel/movie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mucc/Desktop/muccorz.github.io/dougumi/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E60BC0E-65CA-704C-9BC4-95960E4CC3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C322572-9498-ED4E-A363-44DC4D3AC061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="1040" windowWidth="25480" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1300" yWindow="1040" windowWidth="25480" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - douban_new" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7213" uniqueCount="2476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7223" uniqueCount="2480">
   <si>
     <t>你微笑时很美</t>
   </si>
@@ -9494,6 +9494,175 @@
   <si>
     <t>草我以为我看过其实我没有 搞错片子了 存图的时候发现重命名 一看14年给标记了 其实之前看的是泰囧。。//说这片 看之前期待值比较高 因为有下面那个疯狂的赛车托着 我以为也会让我非常惊喜 然。//国产片总把男人出轨后认识到错误重归家庭当成一件功德来赞美真他妈的给我恶心完了 前面两次遇到这傻逼剧情 起码是男主有个认错态度 女主一番忆往昔觉得一日夫妻百日恩 这个傻逼正妻直接就这么算了 那小三还他妈写信告别 整的自己多洒脱 面对真爱多么理智的放手了 我操 你没事吧？知三当三跑到人家里恶心人 最后一副自己被骗了的嘴脸 真是婊子配狗//再说那个女骗子剧情 离谱的要命 但也只是智商低强行圆剧情 尤其是问她为啥跑那句“不把你们引到这来 你们不会相信我” 真她妈给我傻逼疯了 你有话直接说不行？好话好说直接领人家过来不行？？吐了//喜剧感一般不太好玩 多次查看进度条并感到失落 不过倒是有种韩寒很多搞笑手法从这学的感觉。。</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>doubanimg/24758396.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>江湖论剑实录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-04-06</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>挺好笑的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>节奏很好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>剧情结构简单合理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出预期许多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张小公子太可爱啦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>那个女扮男装的再好看点就好了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>感情线很清爽很喜剧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>羊驼和路人们都非常到位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工部的人不敢过自己修的桥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>🤪</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -9706,7 +9875,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -9762,6 +9931,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -10926,8 +11098,8 @@
   </sheetPr>
   <dimension ref="A1:JC667"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I3" zoomScale="89" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="107" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -11020,13 +11192,37 @@
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="20" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="12"/>
+      <c r="A10" s="11" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>2476</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>2383</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>2477</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>2387</v>
+      </c>
       <c r="F10" s="8"/>
-      <c r="H10" s="15"/>
-      <c r="J10" s="5"/>
+      <c r="G10" s="8" t="s">
+        <v>2384</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>2478</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>2385</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>2479</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>2386</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="A11" s="11" t="s">

--- a/dougumi/excel/movie.xlsx
+++ b/dougumi/excel/movie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mucc/Desktop/muccorz.github.io/dougumi/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C322572-9498-ED4E-A363-44DC4D3AC061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2A3966-5558-9846-9BEE-EBCB950690CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="1040" windowWidth="25480" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2540" yWindow="1020" windowWidth="22320" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - douban_new" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7223" uniqueCount="2480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7243" uniqueCount="2490">
   <si>
     <t>你微笑时很美</t>
   </si>
@@ -9516,6 +9516,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -9534,6 +9535,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -9552,6 +9554,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -9570,6 +9573,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -9588,6 +9592,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -9606,6 +9611,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -9624,6 +9630,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -9642,6 +9649,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -9660,9 +9668,49 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>🤪</t>
     </r>
+  </si>
+  <si>
+    <t>一部电影的诞生 / Be Somebody</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>扬名立万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>doubanimg/35422807.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-04-23</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛逼疯了可以说 贼好看 万合天宜太强了😭😭😭 我最后脑子甚至都没够没想明白被分尸的那个是谁 夜莺真的让我有点失望 心安理得的承着齐乐山对她的好//剧中剧的设计好巧妙啊 有拳头有枕头都做到了！而且又有悬疑又有反转！！最后真的是女孩出来反转的！！唯独没看到彩蛋 害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>doubanimg/26930540.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无证之罪</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burning Ice</t>
+  </si>
+  <si>
+    <t>2022-05-09</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>这郭羽后劲儿太大了  我刚开始只以为这个人是单纯的蠢 智商不行 最多加点色批 没想到是纯纯的坏 搁这恶心人 比那李丰田可恨多了//我觉得剧本多少是被拍摄水平掣肘了 上帝视角想要拍出警方的无力感和当局者迷的代入感确实很难 但是目前的上帝视角实在是很多处让人觉得愚蠢到不合理了 不合理的地方就拿冲动/情感说事 这不是一个剧情片的剧本该干的事//另外那个林队那角色是真鸡巴恶心演的稀烂台词磕巴的剧情还搁那不合时宜的随地发情 去掉没有任何鸡毛的影响 养儿子男同事也完全可以发这个善心 换成普通队友哪怕直接让赵局兼任这个角色的位置也没有任何违和感 甚至最后那一枪换成经验老道的其他刑警队友 不受感情影响开准这一枪也更合理 整个剧里这个b除了前期对人颐指气使中期打官腔和替男主打马虎眼 也就是最后那一枪 全都是可有可无的存在 非常屑 有理由怀疑带资进组</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -9672,7 +9720,7 @@
   <numFmts count="1">
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -9772,6 +9820,12 @@
       <name val="PingFang SC"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF111111"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -9875,7 +9929,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -9935,6 +9989,12 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11098,8 +11158,8 @@
   </sheetPr>
   <dimension ref="A1:JC667"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="107" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J3" zoomScale="107" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -11175,21 +11235,68 @@
     </row>
     <row r="8" spans="1:11" ht="20" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="8"/>
-      <c r="H8" s="4"/>
-      <c r="J8" s="5"/>
+      <c r="B8" s="11" t="s">
+        <v>2485</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>2383</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>2387</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>2487</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>2384</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>2488</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>2385</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>2489</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="20" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="8"/>
-      <c r="H9" s="15"/>
-      <c r="J9" s="5"/>
+      <c r="A9" s="11" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>2383</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>2481</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>2387</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>2480</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>2384</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>2483</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>2385</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>2484</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>2386</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="20" customHeight="1">
       <c r="A10" s="11" t="s">

--- a/dougumi/excel/movie.xlsx
+++ b/dougumi/excel/movie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mucc/Desktop/muccorz.github.io/dougumi/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2A3966-5558-9846-9BEE-EBCB950690CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2D6870-0DE7-134B-8632-F7F62BAE1524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1020" windowWidth="22320" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7243" uniqueCount="2490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7244" uniqueCount="2490">
   <si>
     <t>你微笑时很美</t>
   </si>
@@ -11158,8 +11158,8 @@
   </sheetPr>
   <dimension ref="A1:JC667"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J3" zoomScale="107" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="107" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -11234,7 +11234,9 @@
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:11" ht="20" customHeight="1">
-      <c r="A8" s="11"/>
+      <c r="A8" s="11" t="s">
+        <v>2382</v>
+      </c>
       <c r="B8" s="11" t="s">
         <v>2485</v>
       </c>

--- a/dougumi/excel/movie.xlsx
+++ b/dougumi/excel/movie.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mucc/Desktop/muccorz.github.io/dougumi/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93959E19-401F-8B49-BF48-08841427CD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB56232A-5BBC-3540-A02A-A6B24D9D8D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1020" windowWidth="22320" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7309" uniqueCount="2517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7313" uniqueCount="2521">
   <si>
     <t>你微笑时很美</t>
   </si>
@@ -10225,9 +10225,6 @@
     <t>2022-06-20</t>
   </si>
   <si>
-    <t>2022-06-21</t>
-  </si>
-  <si>
     <t>黑袍纠察队 第一季</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -10302,6 +10299,98 @@
   <si>
     <t>2022-07-14</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>doubanimg/1329562.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>头文字D</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t> Initial D</t>
+  </si>
+  <si>
+    <t>2022-07-29</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>陈冠希的颜值导致我一直在截图，甚至可以说是我后期把这个页面重构的动力之一了，整个角色也非常讨人喜欢，配上这张脸，魅力拉满，无可挑剔。没看过漫画也没看过动画，只看这段剧情感觉还可以，扮猪吃老虎的庸庸碌碌小天才，赶上天时地利人和一朝闯出名堂，怪就怪在感情线的描述，一点不流畅，没有交代过和夏树的青梅竹马，而是先说她是现在的同学，主动来找男主还是因为男主为了她打架，她来感谢的时候才说从小就认识。如果是从小就认识加油站老板儿子说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>岁就认识你，你为了一个女人打我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的时候也根本站不住脚了，这段感情来的很突兀。再一个夏树这演员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>……</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后边我才知道是日本人那语言不通可能有点交流问题那算了，问了后边剧情这人没啥出场就纯路人就不多纠结了。总的来说是陈冠希把我对这片的观感拉高了几个档次，很喜欢这个角色。</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -11760,8 +11849,8 @@
   </sheetPr>
   <dimension ref="A4:JC670"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="107" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="107" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -11797,25 +11886,33 @@
     </row>
     <row r="5" spans="1:11" ht="20" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="B5" s="11" t="s">
+        <v>2516</v>
+      </c>
       <c r="C5" s="7" t="s">
         <v>2383</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>2517</v>
+      </c>
       <c r="E5" s="12" t="s">
         <v>2387</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="21" t="s">
+        <v>2518</v>
+      </c>
       <c r="G5" s="8" t="s">
         <v>2384</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>2501</v>
+        <v>2519</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>2385</v>
       </c>
-      <c r="J5" s="5"/>
+      <c r="J5" s="19" t="s">
+        <v>2520</v>
+      </c>
       <c r="K5" s="14" t="s">
         <v>2386</v>
       </c>
@@ -11825,31 +11922,31 @@
         <v>2382</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>2383</v>
       </c>
       <c r="D6" s="22" t="s">
+        <v>2507</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>2387</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>2508</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>2387</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>2509</v>
-      </c>
       <c r="G6" s="8" t="s">
         <v>2384</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>2385</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="K6" s="14" t="s">
         <v>2386</v>
@@ -11860,31 +11957,31 @@
         <v>2382</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>2383</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>2387</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>2384</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>2385</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>2386</v>
@@ -11895,31 +11992,31 @@
         <v>2382</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>2383</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>2501</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>2387</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>2502</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>2387</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="8" t="s">
+        <v>2384</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>2504</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>2385</v>
+      </c>
+      <c r="J8" s="19" t="s">
         <v>2503</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>2384</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>2505</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>2385</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>2504</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>2386</v>

--- a/dougumi/excel/movie.xlsx
+++ b/dougumi/excel/movie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mucc/Desktop/muccorz.github.io/dougumi/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB56232A-5BBC-3540-A02A-A6B24D9D8D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F1902C-D0E2-CE4D-B94D-11B2004A5B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1020" windowWidth="22320" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7313" uniqueCount="2521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7321" uniqueCount="2525">
   <si>
     <t>你微笑时很美</t>
   </si>
@@ -10222,9 +10222,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2022-06-20</t>
-  </si>
-  <si>
     <t>黑袍纠察队 第一季</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -10390,6 +10387,44 @@
         <charset val="134"/>
       </rPr>
       <t>后边我才知道是日本人那语言不通可能有点交流问题那算了，问了后边剧情这人没啥出场就纯路人就不多纠结了。总的来说是陈冠希把我对这片的观感拉高了几个档次，很喜欢这个角色。</t>
+    </r>
+  </si>
+  <si>
+    <t>doubanimg/1307914.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无间道</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infernal Affairs / Mou gaan dou</t>
+  </si>
+  <si>
+    <t>2022-07-31</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>不是我真不明白什么大聪明琢磨的，让陈冠希演小刘德华，陈永仁档案都快被恢复了我都没想明白陈冠希是谁，在警察局里我还以为他会是另外一个卧底，完全想不到长大后竟然成了刘德华，痛太痛了。剧情方面我倒是没啥，虽然没有被剧透过也不知道剧情，但是大概心里有个预警，横竖也没有太让我心里难受，唯一难受的点是冠希哥除了开头的惊鸿一瞥没镜头了。。赶紧去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>了（（</t>
     </r>
   </si>
 </sst>
@@ -11849,8 +11884,8 @@
   </sheetPr>
   <dimension ref="A4:JC670"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="107" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -11868,50 +11903,68 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:11" ht="20" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="11" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>2520</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>2383</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2521</v>
+      </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="8"/>
+      <c r="F4" s="21" t="s">
+        <v>2522</v>
+      </c>
       <c r="G4" s="8" t="s">
         <v>2384</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>2500</v>
-      </c>
-      <c r="J4" s="5"/>
+        <v>2523</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>2385</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>2524</v>
+      </c>
       <c r="K4" s="14" t="s">
         <v>2386</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="20" customHeight="1">
-      <c r="A5" s="11"/>
+      <c r="A5" s="11" t="s">
+        <v>2382</v>
+      </c>
       <c r="B5" s="11" t="s">
+        <v>2515</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>2383</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>2516</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>2383</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="12" t="s">
+        <v>2387</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>2517</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>2387</v>
-      </c>
-      <c r="F5" s="21" t="s">
+      <c r="G5" s="8" t="s">
+        <v>2384</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>2518</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>2384</v>
-      </c>
-      <c r="H5" s="15" t="s">
+      <c r="I5" s="13" t="s">
+        <v>2385</v>
+      </c>
+      <c r="J5" s="19" t="s">
         <v>2519</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>2385</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>2520</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>2386</v>
@@ -11922,31 +11975,31 @@
         <v>2382</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>2383</v>
       </c>
       <c r="D6" s="22" t="s">
+        <v>2506</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>2387</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>2507</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>2387</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>2508</v>
-      </c>
       <c r="G6" s="8" t="s">
         <v>2384</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>2385</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="K6" s="14" t="s">
         <v>2386</v>
@@ -11957,31 +12010,31 @@
         <v>2382</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>2383</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>2387</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>2384</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>2385</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>2386</v>
@@ -11992,31 +12045,31 @@
         <v>2382</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>2383</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>2500</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>2387</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>2501</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>2387</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="8" t="s">
+        <v>2384</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>2503</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>2385</v>
+      </c>
+      <c r="J8" s="19" t="s">
         <v>2502</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>2384</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>2504</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>2385</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>2503</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>2386</v>
